--- a/biology/Botanique/Prochloron/Prochloron.xlsx
+++ b/biology/Botanique/Prochloron/Prochloron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prochloron est un genre de cyanobactéries. L'étymologie du nom vient du grec pro (premier) et chloros (vert). Le genre a été découvert en 1975 par Ralph A. Lewin à la Scripps Institution of Oceanography. C'est un organisme procaryote oxygénique et photosynthétique, communément trouvé comme symbiote dans les récifs de corail, particulièrement dans les cellules d'ascidiacea.
 Faisant partie du phylum des cyanobactéries, la théorie endosymbiotique avait théorisé que Prochloron était le prédécesseur du chloroplaste des cellules végétales eucaryotes. Néanmoins, des études phylogénétiques ont réfuté cette théorie.
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (12 septembre 2013)[1], NCBI  (12 septembre 2013)[2] et World Register of Marine Species                               (12 septembre 2013)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (12 septembre 2013), NCBI  (12 septembre 2013) et World Register of Marine Species                               (12 septembre 2013) :
 Prochloron didemni R.A.Lewin ex L.Hoffmann &amp; W.Greuter, 1996 (espèce type)</t>
         </is>
       </c>
